--- a/Src/assets/texts/texts.xlsx
+++ b/Src/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="57">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -156,6 +156,36 @@
   </si>
   <si>
     <t xml:space="preserve">This is first touchgfx application for skull.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hide Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIde Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hide </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789 :APM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1428,9 @@
         <v>17</v>
       </c>
       <c r="G4"/>
-      <c r="H4"/>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
       <c r="I4"/>
       <c r="J4"/>
       <c r="L4" s="4" t="s">
@@ -1633,6 +1665,40 @@
         <v>46</v>
       </c>
     </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
